--- a/materials/exp_lists/session_1_6.xlsx
+++ b/materials/exp_lists/session_1_6.xlsx
@@ -83,7 +83,7 @@
     <t>farantu = колбаса?</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>колокол</t>
@@ -320,10 +320,10 @@
     <t>potabu</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = аквариум?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = аквариум?</t>
   </si>
   <si>
     <t>копилка</t>
